--- a/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoDfVUwFC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
-    <sheet name="Indonesian Elasticity Data" sheetId="6" r:id="rId2"/>
-    <sheet name="EoDfVUwFC" sheetId="5" r:id="rId3"/>
+    <sheet name="LDVs and HDVs" sheetId="4" r:id="rId2"/>
+    <sheet name="Aircraft" sheetId="1" r:id="rId3"/>
+    <sheet name="Rail and Ships" sheetId="3" r:id="rId4"/>
+    <sheet name="EoDfVUwFC" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+  <si>
+    <t>Elasticity of Demand for Air Travel WRT to Price</t>
+  </si>
+  <si>
+    <t>Elasticity of Demand for Air Travel WRT to Fuel Price</t>
+  </si>
   <si>
     <t>Sources:</t>
   </si>
@@ -27,97 +40,223 @@
     <t>HDVs</t>
   </si>
   <si>
+    <t>aircraft: fraction of airfare costs attributable to fuel</t>
+  </si>
+  <si>
+    <t>International Air Transportation Association</t>
+  </si>
+  <si>
+    <t>IATA Economic Briefing: Airline Fuel and Labour Cost Share</t>
+  </si>
+  <si>
+    <t>http://www.iata.org/whatwedo/Documents/economics/Airline_Labour_Cost_Share_Feb2010.pdf</t>
+  </si>
+  <si>
+    <t>First paragraph</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Fraction of airfare cost attributable to fuel:</t>
+  </si>
+  <si>
+    <t>aircraft: elasticity of demand for air travel</t>
+  </si>
+  <si>
+    <t>Air Travel Demand: IATA Economics Briefing No 9</t>
+  </si>
+  <si>
+    <t>http://www.iata.org/whatwedo/Documents/economics/air_travel_demand.pdf</t>
+  </si>
+  <si>
+    <t>Page 7, "National Level"</t>
+  </si>
+  <si>
+    <t>assume demand for freight air has a similar elasticity to the demand for passenger air</t>
+  </si>
+  <si>
+    <t>travel.  (Many of the same substitituions that are available to passengers, such as</t>
+  </si>
+  <si>
+    <t>traveling by road/rail/ship or communicating digitally rather than traveling, are also</t>
+  </si>
+  <si>
+    <t>available for freight- sending a package by road/rail/ship, buying locally, or buying</t>
+  </si>
+  <si>
+    <t>a digital version of the product.)</t>
+  </si>
+  <si>
+    <t>Note: We only have data on passenger air travel elasticities, not air freight.  We therefore</t>
+  </si>
+  <si>
+    <t>This sheet contains the data from Table 3.4 of Sinha and Labi's</t>
+  </si>
+  <si>
+    <t>book (see source info on the "About" tab).  It is more convenient to</t>
+  </si>
+  <si>
+    <t>access the data here than in the printed book.</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Short-Run Elasticity</t>
+  </si>
+  <si>
+    <t>Low Est.</t>
+  </si>
+  <si>
+    <t>High Est.</t>
+  </si>
+  <si>
+    <t>Long-Run Elasticity</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>gasoline</t>
+  </si>
+  <si>
+    <t>diesel (bus)</t>
+  </si>
+  <si>
+    <t>diesel (truck)</t>
+  </si>
+  <si>
+    <t>propane</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>turbo</t>
+  </si>
+  <si>
+    <t>Sources: Halger Bailly (1999), VTPI (2006)</t>
+  </si>
+  <si>
+    <t>Table 3.4 - Estimated Fuel Price Elasticities by Mode and Fuel Type</t>
+  </si>
+  <si>
     <t>rail</t>
   </si>
   <si>
+    <t>Sinha, Kumares and Samuel Labi</t>
+  </si>
+  <si>
+    <t>Page 54, Table 3.4</t>
+  </si>
+  <si>
+    <t>http://books.google.com/books?id=870LEFbxZTQC&amp;pg=PA54</t>
+  </si>
+  <si>
     <t>ships</t>
   </si>
   <si>
+    <t>Elasticities Selected for Use in Model</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>primarily (A) to avoid outliers, which the short-run low and long-run high estimates sometimes seem to be, and</t>
+  </si>
+  <si>
+    <t>(B) because this results in elasticities more in line with those found for HDVs in the U.S. study.</t>
+  </si>
+  <si>
+    <t>We use the average of the middle two elasticity values (the short-run high estimate and the long-run low estimate),</t>
+  </si>
+  <si>
+    <t>U.S. EPA and U.S. NHTSA</t>
+  </si>
+  <si>
+    <t>2017 and Later Model Year Light-Duty Vehicle Greenhouse Gas Emissions and Corporate Average Fuel Economy Standards (Final Rule)</t>
+  </si>
+  <si>
+    <t>http://www.gpo.gov/fdsys/pkg/FR-2012-10-15/pdf/2012-21972.pdf</t>
+  </si>
+  <si>
+    <t>U.S. EPA and NHTSA</t>
+  </si>
+  <si>
+    <t>Greenhouse Gas Emissions Standards and Fuel Efficiency Standards for Medium- and Heavy-Duty Engines and Vehicles (Final Rule)</t>
+  </si>
+  <si>
+    <t>http://www.gpo.gov/fdsys/pkg/FR-2011-09-15/pdf/2011-20740.pdf</t>
+  </si>
+  <si>
+    <t>LDV and HDV elasticities are taken from two separate analyses, each done jointly</t>
+  </si>
+  <si>
+    <t>by the EPA and NHTSA.  They considered certain ranges of values and selected a</t>
+  </si>
+  <si>
+    <t>final elasticity value for use in their analysis (supporting their rulemaking).</t>
+  </si>
+  <si>
+    <t>We use the value they selected.</t>
+  </si>
+  <si>
+    <t>Page 62716, second column, first bullet point, second sentence</t>
+  </si>
+  <si>
+    <t>Page 57329, first column, last sentence</t>
+  </si>
+  <si>
+    <t>Transportation Decision Making: Principles of Project Evaluation and Programming</t>
+  </si>
+  <si>
     <t>motorbikes</t>
   </si>
   <si>
+    <t>Assumed to be the same as LDVs</t>
+  </si>
+  <si>
     <t>EoDfVUwFC Elasticity of Demand for Vehicle Use wrt Fuel Cost</t>
   </si>
   <si>
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Elasticity</t>
-  </si>
-  <si>
     <t>aircraft</t>
   </si>
   <si>
-    <t>Road Gasoline</t>
-  </si>
-  <si>
-    <t>Road Diesel - Bus</t>
-  </si>
-  <si>
-    <t>Road Propane</t>
-  </si>
-  <si>
-    <t>Road CNG</t>
-  </si>
-  <si>
-    <t>Rail Diesel</t>
-  </si>
-  <si>
-    <t>Aviation Gasoline</t>
-  </si>
-  <si>
-    <t>Marine Diesel</t>
-  </si>
-  <si>
-    <t>Short Run Elasticity</t>
-  </si>
-  <si>
-    <t>Long Run Elasticity</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Road Diesel - Truck</t>
-  </si>
-  <si>
-    <t>Aviation Turbo</t>
-  </si>
-  <si>
-    <t>Tabel 7: Estimasi Elastisitas Harga Bahan Bakar</t>
-  </si>
-  <si>
-    <t>Page 21, Table 7</t>
-  </si>
-  <si>
-    <t>http://hubdat.dephub.go.id/spesial-konten/pustaka/literatur/transport-umum/518-pajak-bbm-untuk-pembangunan-jalan-raya/download</t>
-  </si>
-  <si>
-    <t>Fuel Taxes for Highway Development</t>
-  </si>
-  <si>
-    <t>Ministry of Transportation</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>We use short-run elasticities in this variable, as these best reflect the behavioral shifts that this variable</t>
-  </si>
-  <si>
-    <t>is attempting to capture.</t>
+    <t>This variable is also known as the "Fuel Economy Rebound Effect" or "Fuel Cost Rebound Effect." It is the change</t>
+  </si>
+  <si>
+    <t>in VMT as a fraction of the change in fuel cost. E.g. for a 1% increase in fuel cost per mile, VMT changes by -0.1%.</t>
+  </si>
+  <si>
+    <t>Elasticity (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,12 +282,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,17 +315,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -185,6 +348,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -445,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,61 +619,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>31</v>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1"/>
+    <hyperlink ref="B28" r:id="rId2"/>
+    <hyperlink ref="B35" r:id="rId3"/>
+    <hyperlink ref="B42" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -516,255 +907,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B5*B3</f>
+        <v>-0.29360000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>-0.1</v>
-      </c>
-      <c r="C4">
-        <v>-0.15</v>
-      </c>
-      <c r="D4">
-        <v>-0.2</v>
-      </c>
-      <c r="E4">
-        <v>-0.4</v>
-      </c>
-      <c r="F4">
-        <v>-0.6</v>
-      </c>
-      <c r="G4">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>-0.05</v>
-      </c>
-      <c r="C5">
-        <v>-0.1</v>
-      </c>
-      <c r="D5">
-        <v>-0.15</v>
-      </c>
-      <c r="E5">
-        <v>-0.2</v>
-      </c>
-      <c r="F5">
-        <v>-0.4</v>
-      </c>
-      <c r="G5">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>-0.05</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-      <c r="D6">
-        <v>-0.15</v>
-      </c>
-      <c r="E6">
-        <v>-0.2</v>
-      </c>
-      <c r="F6">
-        <v>-0.3</v>
-      </c>
-      <c r="G6">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>-0.1</v>
-      </c>
-      <c r="C7">
-        <v>-0.15</v>
-      </c>
-      <c r="D7">
-        <v>-0.2</v>
-      </c>
-      <c r="E7">
-        <v>-0.4</v>
-      </c>
-      <c r="F7">
-        <v>-0.6</v>
-      </c>
-      <c r="G7">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>-0.1</v>
-      </c>
-      <c r="C8">
-        <v>-0.15</v>
-      </c>
-      <c r="D8">
-        <v>-0.2</v>
-      </c>
-      <c r="E8">
-        <v>-0.4</v>
-      </c>
-      <c r="F8">
-        <v>-0.6</v>
-      </c>
-      <c r="G8">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>-0.05</v>
-      </c>
-      <c r="C9">
-        <v>-0.1</v>
-      </c>
-      <c r="D9">
-        <v>-0.15</v>
-      </c>
-      <c r="E9">
-        <v>-0.15</v>
-      </c>
-      <c r="F9">
-        <v>-0.4</v>
-      </c>
-      <c r="G9">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>-0.05</v>
-      </c>
-      <c r="C10">
-        <v>-0.1</v>
-      </c>
-      <c r="D10">
-        <v>-0.15</v>
-      </c>
-      <c r="E10">
-        <v>-0.2</v>
-      </c>
-      <c r="F10">
-        <v>-0.3</v>
-      </c>
-      <c r="G10">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>-0.1</v>
-      </c>
-      <c r="C11">
-        <v>-0.15</v>
-      </c>
-      <c r="D11">
-        <v>-0.2</v>
-      </c>
-      <c r="E11">
-        <v>-0.2</v>
-      </c>
-      <c r="F11">
-        <v>-0.3</v>
-      </c>
-      <c r="G11">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>-0.02</v>
-      </c>
-      <c r="C12">
-        <v>-0.05</v>
-      </c>
-      <c r="D12">
-        <v>-0.1</v>
-      </c>
-      <c r="E12">
-        <v>-0.2</v>
-      </c>
-      <c r="F12">
-        <v>-0.3</v>
-      </c>
-      <c r="G12">
-        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -772,81 +985,384 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5">
+        <f>AVERAGE(D13:E13)</f>
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5">
+        <f>AVERAGE(D16:E16)</f>
+        <v>-0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B22:B23" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <f>'Indonesian Elasticity Data'!C4</f>
-        <v>-0.15</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="9">
+        <f>'LDVs and HDVs'!B6</f>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <f>'Indonesian Elasticity Data'!C5</f>
-        <v>-0.1</v>
+        <f>'LDVs and HDVs'!B7</f>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'Indonesian Elasticity Data'!C10</f>
-        <v>-0.1</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="9">
+        <f>Aircraft!B7</f>
+        <v>-0.29360000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <f>'Indonesian Elasticity Data'!C9</f>
-        <v>-0.1</v>
+        <f>'Rail and Ships'!B22</f>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <f>'Indonesian Elasticity Data'!C12</f>
-        <v>-0.05</v>
+        <f>'Rail and Ships'!B23</f>
+        <v>-0.15000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <f>'Indonesian Elasticity Data'!C4</f>
-        <v>-0.15</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="9">
+        <f>B2</f>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
